--- a/Modulo5/src/out/info_estados/Oregon.xlsx
+++ b/Modulo5/src/out/info_estados/Oregon.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="62">
   <si>
     <t>state</t>
   </si>
@@ -40,10 +40,10 @@
     <t>fraction_votes</t>
   </si>
   <si>
-    <t>nueva_columna</t>
+    <t>nuevaColumna</t>
   </si>
   <si>
-    <t>columna_aumentada</t>
+    <t>slogan</t>
   </si>
   <si>
     <t>letra_inicial</t>
@@ -191,6 +191,12 @@
   </si>
   <si>
     <t>Ted Cruz</t>
+  </si>
+  <si>
+    <t>Un buen partido</t>
+  </si>
+  <si>
+    <t>No pobres en pais rico</t>
   </si>
   <si>
     <t>O</t>
@@ -629,14 +635,14 @@
       <c r="I2">
         <v>1</v>
       </c>
-      <c r="J2">
-        <v>3</v>
+      <c r="J2" t="s">
+        <v>59</v>
       </c>
       <c r="K2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L2">
-        <v>4</v>
+        <v>744</v>
       </c>
       <c r="M2">
         <v>41001</v>
@@ -673,14 +679,14 @@
       <c r="I3">
         <v>1</v>
       </c>
-      <c r="J3">
-        <v>3</v>
+      <c r="J3" t="s">
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L3">
-        <v>4</v>
+        <v>494</v>
       </c>
       <c r="M3">
         <v>41001</v>
@@ -717,14 +723,14 @@
       <c r="I4">
         <v>1</v>
       </c>
-      <c r="J4">
-        <v>3</v>
+      <c r="J4" t="s">
+        <v>60</v>
       </c>
       <c r="K4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L4">
-        <v>4</v>
+        <v>2331</v>
       </c>
       <c r="M4">
         <v>41001</v>
@@ -761,14 +767,14 @@
       <c r="I5">
         <v>1</v>
       </c>
-      <c r="J5">
-        <v>3</v>
+      <c r="J5" t="s">
+        <v>60</v>
       </c>
       <c r="K5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L5">
-        <v>4</v>
+        <v>472</v>
       </c>
       <c r="M5">
         <v>41001</v>
@@ -805,14 +811,14 @@
       <c r="I6">
         <v>1</v>
       </c>
-      <c r="J6">
-        <v>3</v>
+      <c r="J6" t="s">
+        <v>60</v>
       </c>
       <c r="K6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>681</v>
       </c>
       <c r="M6">
         <v>41001</v>
@@ -849,14 +855,14 @@
       <c r="I7">
         <v>1</v>
       </c>
-      <c r="J7">
-        <v>3</v>
+      <c r="J7" t="s">
+        <v>59</v>
       </c>
       <c r="K7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>11568</v>
       </c>
       <c r="M7">
         <v>41003</v>
@@ -893,14 +899,14 @@
       <c r="I8">
         <v>1</v>
       </c>
-      <c r="J8">
-        <v>3</v>
+      <c r="J8" t="s">
+        <v>59</v>
       </c>
       <c r="K8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L8">
-        <v>4</v>
+        <v>7349</v>
       </c>
       <c r="M8">
         <v>41003</v>
@@ -937,14 +943,14 @@
       <c r="I9">
         <v>1</v>
       </c>
-      <c r="J9">
-        <v>3</v>
+      <c r="J9" t="s">
+        <v>60</v>
       </c>
       <c r="K9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>4139</v>
       </c>
       <c r="M9">
         <v>41003</v>
@@ -981,14 +987,14 @@
       <c r="I10">
         <v>1</v>
       </c>
-      <c r="J10">
-        <v>3</v>
+      <c r="J10" t="s">
+        <v>60</v>
       </c>
       <c r="K10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>1743</v>
       </c>
       <c r="M10">
         <v>41003</v>
@@ -1025,14 +1031,14 @@
       <c r="I11">
         <v>1</v>
       </c>
-      <c r="J11">
-        <v>3</v>
+      <c r="J11" t="s">
+        <v>60</v>
       </c>
       <c r="K11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>1414</v>
       </c>
       <c r="M11">
         <v>41003</v>
@@ -1069,14 +1075,14 @@
       <c r="I12">
         <v>1</v>
       </c>
-      <c r="J12">
-        <v>3</v>
+      <c r="J12" t="s">
+        <v>59</v>
       </c>
       <c r="K12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>27970</v>
       </c>
       <c r="M12">
         <v>41005</v>
@@ -1113,14 +1119,14 @@
       <c r="I13">
         <v>1</v>
       </c>
-      <c r="J13">
-        <v>3</v>
+      <c r="J13" t="s">
+        <v>59</v>
       </c>
       <c r="K13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L13">
-        <v>4</v>
+        <v>26379</v>
       </c>
       <c r="M13">
         <v>41005</v>
@@ -1157,14 +1163,14 @@
       <c r="I14">
         <v>1</v>
       </c>
-      <c r="J14">
-        <v>3</v>
+      <c r="J14" t="s">
+        <v>60</v>
       </c>
       <c r="K14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L14">
-        <v>4</v>
+        <v>24885</v>
       </c>
       <c r="M14">
         <v>41005</v>
@@ -1201,14 +1207,14 @@
       <c r="I15">
         <v>1</v>
       </c>
-      <c r="J15">
-        <v>3</v>
+      <c r="J15" t="s">
+        <v>60</v>
       </c>
       <c r="K15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L15">
-        <v>4</v>
+        <v>7385</v>
       </c>
       <c r="M15">
         <v>41005</v>
@@ -1245,14 +1251,14 @@
       <c r="I16">
         <v>1</v>
       </c>
-      <c r="J16">
-        <v>3</v>
+      <c r="J16" t="s">
+        <v>60</v>
       </c>
       <c r="K16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L16">
-        <v>4</v>
+        <v>6892</v>
       </c>
       <c r="M16">
         <v>41005</v>
@@ -1289,14 +1295,14 @@
       <c r="I17">
         <v>1</v>
       </c>
-      <c r="J17">
-        <v>3</v>
+      <c r="J17" t="s">
+        <v>59</v>
       </c>
       <c r="K17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L17">
-        <v>4</v>
+        <v>3335</v>
       </c>
       <c r="M17">
         <v>41007</v>
@@ -1333,14 +1339,14 @@
       <c r="I18">
         <v>1</v>
       </c>
-      <c r="J18">
-        <v>3</v>
+      <c r="J18" t="s">
+        <v>59</v>
       </c>
       <c r="K18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L18">
-        <v>4</v>
+        <v>2629</v>
       </c>
       <c r="M18">
         <v>41007</v>
@@ -1377,14 +1383,14 @@
       <c r="I19">
         <v>1</v>
       </c>
-      <c r="J19">
-        <v>3</v>
+      <c r="J19" t="s">
+        <v>60</v>
       </c>
       <c r="K19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L19">
-        <v>4</v>
+        <v>2392</v>
       </c>
       <c r="M19">
         <v>41007</v>
@@ -1421,14 +1427,14 @@
       <c r="I20">
         <v>1</v>
       </c>
-      <c r="J20">
-        <v>3</v>
+      <c r="J20" t="s">
+        <v>60</v>
       </c>
       <c r="K20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L20">
-        <v>4</v>
+        <v>595</v>
       </c>
       <c r="M20">
         <v>41007</v>
@@ -1465,14 +1471,14 @@
       <c r="I21">
         <v>1</v>
       </c>
-      <c r="J21">
-        <v>3</v>
+      <c r="J21" t="s">
+        <v>60</v>
       </c>
       <c r="K21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L21">
-        <v>4</v>
+        <v>435</v>
       </c>
       <c r="M21">
         <v>41007</v>
@@ -1509,14 +1515,14 @@
       <c r="I22">
         <v>1</v>
       </c>
-      <c r="J22">
-        <v>3</v>
+      <c r="J22" t="s">
+        <v>59</v>
       </c>
       <c r="K22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L22">
-        <v>4</v>
+        <v>4222</v>
       </c>
       <c r="M22">
         <v>41009</v>
@@ -1553,14 +1559,14 @@
       <c r="I23">
         <v>1</v>
       </c>
-      <c r="J23">
-        <v>3</v>
+      <c r="J23" t="s">
+        <v>59</v>
       </c>
       <c r="K23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L23">
-        <v>4</v>
+        <v>3046</v>
       </c>
       <c r="M23">
         <v>41009</v>
@@ -1597,14 +1603,14 @@
       <c r="I24">
         <v>1</v>
       </c>
-      <c r="J24">
-        <v>3</v>
+      <c r="J24" t="s">
+        <v>60</v>
       </c>
       <c r="K24" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L24">
-        <v>4</v>
+        <v>3419</v>
       </c>
       <c r="M24">
         <v>41009</v>
@@ -1641,14 +1647,14 @@
       <c r="I25">
         <v>1</v>
       </c>
-      <c r="J25">
-        <v>3</v>
+      <c r="J25" t="s">
+        <v>60</v>
       </c>
       <c r="K25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L25">
-        <v>4</v>
+        <v>648</v>
       </c>
       <c r="M25">
         <v>41009</v>
@@ -1685,14 +1691,14 @@
       <c r="I26">
         <v>1</v>
       </c>
-      <c r="J26">
-        <v>3</v>
+      <c r="J26" t="s">
+        <v>60</v>
       </c>
       <c r="K26" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L26">
-        <v>4</v>
+        <v>985</v>
       </c>
       <c r="M26">
         <v>41009</v>
@@ -1729,14 +1735,14 @@
       <c r="I27">
         <v>1</v>
       </c>
-      <c r="J27">
-        <v>3</v>
+      <c r="J27" t="s">
+        <v>59</v>
       </c>
       <c r="K27" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L27">
-        <v>4</v>
+        <v>4429</v>
       </c>
       <c r="M27">
         <v>41011</v>
@@ -1773,14 +1779,14 @@
       <c r="I28">
         <v>1</v>
       </c>
-      <c r="J28">
-        <v>3</v>
+      <c r="J28" t="s">
+        <v>59</v>
       </c>
       <c r="K28" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L28">
-        <v>4</v>
+        <v>3473</v>
       </c>
       <c r="M28">
         <v>41011</v>
@@ -1817,14 +1823,14 @@
       <c r="I29">
         <v>1</v>
       </c>
-      <c r="J29">
-        <v>3</v>
+      <c r="J29" t="s">
+        <v>60</v>
       </c>
       <c r="K29" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L29">
-        <v>4</v>
+        <v>5962</v>
       </c>
       <c r="M29">
         <v>41011</v>
@@ -1861,14 +1867,14 @@
       <c r="I30">
         <v>1</v>
       </c>
-      <c r="J30">
-        <v>3</v>
+      <c r="J30" t="s">
+        <v>60</v>
       </c>
       <c r="K30" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L30">
-        <v>4</v>
+        <v>744</v>
       </c>
       <c r="M30">
         <v>41011</v>
@@ -1905,14 +1911,14 @@
       <c r="I31">
         <v>1</v>
       </c>
-      <c r="J31">
-        <v>3</v>
+      <c r="J31" t="s">
+        <v>60</v>
       </c>
       <c r="K31" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L31">
-        <v>4</v>
+        <v>872</v>
       </c>
       <c r="M31">
         <v>41011</v>
@@ -1949,14 +1955,14 @@
       <c r="I32">
         <v>1</v>
       </c>
-      <c r="J32">
-        <v>3</v>
+      <c r="J32" t="s">
+        <v>59</v>
       </c>
       <c r="K32" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L32">
-        <v>4</v>
+        <v>1020</v>
       </c>
       <c r="M32">
         <v>41013</v>
@@ -1993,14 +1999,14 @@
       <c r="I33">
         <v>1</v>
       </c>
-      <c r="J33">
-        <v>3</v>
+      <c r="J33" t="s">
+        <v>59</v>
       </c>
       <c r="K33" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L33">
-        <v>4</v>
+        <v>841</v>
       </c>
       <c r="M33">
         <v>41013</v>
@@ -2037,14 +2043,14 @@
       <c r="I34">
         <v>1</v>
       </c>
-      <c r="J34">
-        <v>3</v>
+      <c r="J34" t="s">
+        <v>60</v>
       </c>
       <c r="K34" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L34">
-        <v>4</v>
+        <v>3052</v>
       </c>
       <c r="M34">
         <v>41013</v>
@@ -2081,14 +2087,14 @@
       <c r="I35">
         <v>1</v>
       </c>
-      <c r="J35">
-        <v>3</v>
+      <c r="J35" t="s">
+        <v>60</v>
       </c>
       <c r="K35" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L35">
-        <v>4</v>
+        <v>455</v>
       </c>
       <c r="M35">
         <v>41013</v>
@@ -2125,14 +2131,14 @@
       <c r="I36">
         <v>1</v>
       </c>
-      <c r="J36">
-        <v>3</v>
+      <c r="J36" t="s">
+        <v>60</v>
       </c>
       <c r="K36" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L36">
-        <v>4</v>
+        <v>682</v>
       </c>
       <c r="M36">
         <v>41013</v>
@@ -2169,14 +2175,14 @@
       <c r="I37">
         <v>1</v>
       </c>
-      <c r="J37">
-        <v>3</v>
+      <c r="J37" t="s">
+        <v>59</v>
       </c>
       <c r="K37" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L37">
-        <v>4</v>
+        <v>1568</v>
       </c>
       <c r="M37">
         <v>41015</v>
@@ -2213,14 +2219,14 @@
       <c r="I38">
         <v>1</v>
       </c>
-      <c r="J38">
-        <v>3</v>
+      <c r="J38" t="s">
+        <v>59</v>
       </c>
       <c r="K38" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L38">
-        <v>4</v>
+        <v>1425</v>
       </c>
       <c r="M38">
         <v>41015</v>
@@ -2257,14 +2263,14 @@
       <c r="I39">
         <v>1</v>
       </c>
-      <c r="J39">
-        <v>3</v>
+      <c r="J39" t="s">
+        <v>60</v>
       </c>
       <c r="K39" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L39">
-        <v>4</v>
+        <v>2937</v>
       </c>
       <c r="M39">
         <v>41015</v>
@@ -2301,14 +2307,14 @@
       <c r="I40">
         <v>1</v>
       </c>
-      <c r="J40">
-        <v>3</v>
+      <c r="J40" t="s">
+        <v>60</v>
       </c>
       <c r="K40" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L40">
-        <v>4</v>
+        <v>343</v>
       </c>
       <c r="M40">
         <v>41015</v>
@@ -2345,14 +2351,14 @@
       <c r="I41">
         <v>1</v>
       </c>
-      <c r="J41">
-        <v>3</v>
+      <c r="J41" t="s">
+        <v>60</v>
       </c>
       <c r="K41" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L41">
-        <v>4</v>
+        <v>499</v>
       </c>
       <c r="M41">
         <v>41015</v>
@@ -2389,14 +2395,14 @@
       <c r="I42">
         <v>1</v>
       </c>
-      <c r="J42">
-        <v>3</v>
+      <c r="J42" t="s">
+        <v>59</v>
       </c>
       <c r="K42" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L42">
-        <v>4</v>
+        <v>12326</v>
       </c>
       <c r="M42">
         <v>41017</v>
@@ -2433,14 +2439,14 @@
       <c r="I43">
         <v>1</v>
       </c>
-      <c r="J43">
-        <v>3</v>
+      <c r="J43" t="s">
+        <v>59</v>
       </c>
       <c r="K43" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L43">
-        <v>4</v>
+        <v>10813</v>
       </c>
       <c r="M43">
         <v>41017</v>
@@ -2477,14 +2483,14 @@
       <c r="I44">
         <v>1</v>
       </c>
-      <c r="J44">
-        <v>3</v>
+      <c r="J44" t="s">
+        <v>60</v>
       </c>
       <c r="K44" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L44">
-        <v>4</v>
+        <v>14265</v>
       </c>
       <c r="M44">
         <v>41017</v>
@@ -2521,14 +2527,14 @@
       <c r="I45">
         <v>1</v>
       </c>
-      <c r="J45">
-        <v>3</v>
+      <c r="J45" t="s">
+        <v>60</v>
       </c>
       <c r="K45" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L45">
-        <v>4</v>
+        <v>3650</v>
       </c>
       <c r="M45">
         <v>41017</v>
@@ -2565,14 +2571,14 @@
       <c r="I46">
         <v>1</v>
       </c>
-      <c r="J46">
-        <v>3</v>
+      <c r="J46" t="s">
+        <v>60</v>
       </c>
       <c r="K46" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L46">
-        <v>4</v>
+        <v>3096</v>
       </c>
       <c r="M46">
         <v>41017</v>
@@ -2609,14 +2615,14 @@
       <c r="I47">
         <v>1</v>
       </c>
-      <c r="J47">
-        <v>3</v>
+      <c r="J47" t="s">
+        <v>59</v>
       </c>
       <c r="K47" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L47">
-        <v>4</v>
+        <v>5692</v>
       </c>
       <c r="M47">
         <v>41019</v>
@@ -2653,14 +2659,14 @@
       <c r="I48">
         <v>1</v>
       </c>
-      <c r="J48">
-        <v>3</v>
+      <c r="J48" t="s">
+        <v>59</v>
       </c>
       <c r="K48" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L48">
-        <v>4</v>
+        <v>4500</v>
       </c>
       <c r="M48">
         <v>41019</v>
@@ -2697,14 +2703,14 @@
       <c r="I49">
         <v>1</v>
       </c>
-      <c r="J49">
-        <v>3</v>
+      <c r="J49" t="s">
+        <v>60</v>
       </c>
       <c r="K49" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L49">
-        <v>4</v>
+        <v>12264</v>
       </c>
       <c r="M49">
         <v>41019</v>
@@ -2741,14 +2747,14 @@
       <c r="I50">
         <v>1</v>
       </c>
-      <c r="J50">
-        <v>3</v>
+      <c r="J50" t="s">
+        <v>60</v>
       </c>
       <c r="K50" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L50">
-        <v>4</v>
+        <v>1523</v>
       </c>
       <c r="M50">
         <v>41019</v>
@@ -2785,14 +2791,14 @@
       <c r="I51">
         <v>1</v>
       </c>
-      <c r="J51">
-        <v>3</v>
+      <c r="J51" t="s">
+        <v>60</v>
       </c>
       <c r="K51" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L51">
-        <v>4</v>
+        <v>2349</v>
       </c>
       <c r="M51">
         <v>41019</v>
@@ -2829,14 +2835,14 @@
       <c r="I52">
         <v>1</v>
       </c>
-      <c r="J52">
-        <v>3</v>
+      <c r="J52" t="s">
+        <v>59</v>
       </c>
       <c r="K52" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L52">
-        <v>4</v>
+        <v>101</v>
       </c>
       <c r="M52">
         <v>41021</v>
@@ -2873,14 +2879,14 @@
       <c r="I53">
         <v>1</v>
       </c>
-      <c r="J53">
-        <v>3</v>
+      <c r="J53" t="s">
+        <v>59</v>
       </c>
       <c r="K53" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L53">
-        <v>4</v>
+        <v>102</v>
       </c>
       <c r="M53">
         <v>41021</v>
@@ -2917,14 +2923,14 @@
       <c r="I54">
         <v>1</v>
       </c>
-      <c r="J54">
-        <v>3</v>
+      <c r="J54" t="s">
+        <v>60</v>
       </c>
       <c r="K54" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L54">
-        <v>4</v>
+        <v>228</v>
       </c>
       <c r="M54">
         <v>41021</v>
@@ -2961,14 +2967,14 @@
       <c r="I55">
         <v>1</v>
       </c>
-      <c r="J55">
-        <v>3</v>
+      <c r="J55" t="s">
+        <v>60</v>
       </c>
       <c r="K55" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L55">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="M55">
         <v>41021</v>
@@ -3005,14 +3011,14 @@
       <c r="I56">
         <v>1</v>
       </c>
-      <c r="J56">
-        <v>3</v>
+      <c r="J56" t="s">
+        <v>60</v>
       </c>
       <c r="K56" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L56">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="M56">
         <v>41021</v>
@@ -3049,14 +3055,14 @@
       <c r="I57">
         <v>1</v>
       </c>
-      <c r="J57">
-        <v>3</v>
+      <c r="J57" t="s">
+        <v>59</v>
       </c>
       <c r="K57" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L57">
-        <v>4</v>
+        <v>382</v>
       </c>
       <c r="M57">
         <v>41023</v>
@@ -3093,14 +3099,14 @@
       <c r="I58">
         <v>1</v>
       </c>
-      <c r="J58">
-        <v>3</v>
+      <c r="J58" t="s">
+        <v>59</v>
       </c>
       <c r="K58" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L58">
-        <v>4</v>
+        <v>214</v>
       </c>
       <c r="M58">
         <v>41023</v>
@@ -3137,14 +3143,14 @@
       <c r="I59">
         <v>1</v>
       </c>
-      <c r="J59">
-        <v>3</v>
+      <c r="J59" t="s">
+        <v>60</v>
       </c>
       <c r="K59" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L59">
-        <v>4</v>
+        <v>1452</v>
       </c>
       <c r="M59">
         <v>41023</v>
@@ -3181,14 +3187,14 @@
       <c r="I60">
         <v>1</v>
       </c>
-      <c r="J60">
-        <v>3</v>
+      <c r="J60" t="s">
+        <v>60</v>
       </c>
       <c r="K60" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L60">
-        <v>4</v>
+        <v>155</v>
       </c>
       <c r="M60">
         <v>41023</v>
@@ -3225,14 +3231,14 @@
       <c r="I61">
         <v>1</v>
       </c>
-      <c r="J61">
-        <v>3</v>
+      <c r="J61" t="s">
+        <v>60</v>
       </c>
       <c r="K61" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L61">
-        <v>4</v>
+        <v>255</v>
       </c>
       <c r="M61">
         <v>41023</v>
@@ -3269,14 +3275,14 @@
       <c r="I62">
         <v>1</v>
       </c>
-      <c r="J62">
-        <v>3</v>
+      <c r="J62" t="s">
+        <v>59</v>
       </c>
       <c r="K62" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L62">
-        <v>4</v>
+        <v>353</v>
       </c>
       <c r="M62">
         <v>41025</v>
@@ -3313,14 +3319,14 @@
       <c r="I63">
         <v>1</v>
       </c>
-      <c r="J63">
-        <v>3</v>
+      <c r="J63" t="s">
+        <v>59</v>
       </c>
       <c r="K63" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L63">
-        <v>4</v>
+        <v>237</v>
       </c>
       <c r="M63">
         <v>41025</v>
@@ -3357,14 +3363,14 @@
       <c r="I64">
         <v>1</v>
       </c>
-      <c r="J64">
-        <v>3</v>
+      <c r="J64" t="s">
+        <v>60</v>
       </c>
       <c r="K64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L64">
-        <v>4</v>
+        <v>1336</v>
       </c>
       <c r="M64">
         <v>41025</v>
@@ -3401,14 +3407,14 @@
       <c r="I65">
         <v>1</v>
       </c>
-      <c r="J65">
-        <v>3</v>
+      <c r="J65" t="s">
+        <v>60</v>
       </c>
       <c r="K65" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L65">
-        <v>4</v>
+        <v>187</v>
       </c>
       <c r="M65">
         <v>41025</v>
@@ -3445,14 +3451,14 @@
       <c r="I66">
         <v>1</v>
       </c>
-      <c r="J66">
-        <v>3</v>
+      <c r="J66" t="s">
+        <v>60</v>
       </c>
       <c r="K66" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L66">
-        <v>4</v>
+        <v>225</v>
       </c>
       <c r="M66">
         <v>41025</v>
@@ -3489,14 +3495,14 @@
       <c r="I67">
         <v>1</v>
       </c>
-      <c r="J67">
-        <v>3</v>
+      <c r="J67" t="s">
+        <v>59</v>
       </c>
       <c r="K67" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L67">
-        <v>4</v>
+        <v>2528</v>
       </c>
       <c r="M67">
         <v>41027</v>
@@ -3533,14 +3539,14 @@
       <c r="I68">
         <v>1</v>
       </c>
-      <c r="J68">
-        <v>3</v>
+      <c r="J68" t="s">
+        <v>59</v>
       </c>
       <c r="K68" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L68">
-        <v>4</v>
+        <v>1634</v>
       </c>
       <c r="M68">
         <v>41027</v>
@@ -3577,14 +3583,14 @@
       <c r="I69">
         <v>1</v>
       </c>
-      <c r="J69">
-        <v>3</v>
+      <c r="J69" t="s">
+        <v>60</v>
       </c>
       <c r="K69" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L69">
-        <v>4</v>
+        <v>1164</v>
       </c>
       <c r="M69">
         <v>41027</v>
@@ -3621,14 +3627,14 @@
       <c r="I70">
         <v>1</v>
       </c>
-      <c r="J70">
-        <v>3</v>
+      <c r="J70" t="s">
+        <v>60</v>
       </c>
       <c r="K70" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L70">
-        <v>4</v>
+        <v>477</v>
       </c>
       <c r="M70">
         <v>41027</v>
@@ -3665,14 +3671,14 @@
       <c r="I71">
         <v>1</v>
       </c>
-      <c r="J71">
-        <v>3</v>
+      <c r="J71" t="s">
+        <v>60</v>
       </c>
       <c r="K71" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L71">
-        <v>4</v>
+        <v>323</v>
       </c>
       <c r="M71">
         <v>41027</v>
@@ -3709,14 +3715,14 @@
       <c r="I72">
         <v>1</v>
       </c>
-      <c r="J72">
-        <v>3</v>
+      <c r="J72" t="s">
+        <v>59</v>
       </c>
       <c r="K72" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L72">
-        <v>4</v>
+        <v>16113</v>
       </c>
       <c r="M72">
         <v>41029</v>
@@ -3753,14 +3759,14 @@
       <c r="I73">
         <v>1</v>
       </c>
-      <c r="J73">
-        <v>3</v>
+      <c r="J73" t="s">
+        <v>59</v>
       </c>
       <c r="K73" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L73">
-        <v>4</v>
+        <v>12484</v>
       </c>
       <c r="M73">
         <v>41029</v>
@@ -3797,14 +3803,14 @@
       <c r="I74">
         <v>1</v>
       </c>
-      <c r="J74">
-        <v>3</v>
+      <c r="J74" t="s">
+        <v>60</v>
       </c>
       <c r="K74" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L74">
-        <v>4</v>
+        <v>18499</v>
       </c>
       <c r="M74">
         <v>41029</v>
@@ -3841,14 +3847,14 @@
       <c r="I75">
         <v>1</v>
       </c>
-      <c r="J75">
-        <v>3</v>
+      <c r="J75" t="s">
+        <v>60</v>
       </c>
       <c r="K75" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L75">
-        <v>4</v>
+        <v>3119</v>
       </c>
       <c r="M75">
         <v>41029</v>
@@ -3885,14 +3891,14 @@
       <c r="I76">
         <v>1</v>
       </c>
-      <c r="J76">
-        <v>3</v>
+      <c r="J76" t="s">
+        <v>60</v>
       </c>
       <c r="K76" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L76">
-        <v>4</v>
+        <v>3196</v>
       </c>
       <c r="M76">
         <v>41029</v>
@@ -3929,14 +3935,14 @@
       <c r="I77">
         <v>1</v>
       </c>
-      <c r="J77">
-        <v>3</v>
+      <c r="J77" t="s">
+        <v>59</v>
       </c>
       <c r="K77" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L77">
-        <v>4</v>
+        <v>868</v>
       </c>
       <c r="M77">
         <v>41031</v>
@@ -3973,14 +3979,14 @@
       <c r="I78">
         <v>1</v>
       </c>
-      <c r="J78">
-        <v>3</v>
+      <c r="J78" t="s">
+        <v>59</v>
       </c>
       <c r="K78" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L78">
-        <v>4</v>
+        <v>800</v>
       </c>
       <c r="M78">
         <v>41031</v>
@@ -4017,14 +4023,14 @@
       <c r="I79">
         <v>1</v>
       </c>
-      <c r="J79">
-        <v>3</v>
+      <c r="J79" t="s">
+        <v>60</v>
       </c>
       <c r="K79" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L79">
-        <v>4</v>
+        <v>1772</v>
       </c>
       <c r="M79">
         <v>41031</v>
@@ -4061,14 +4067,14 @@
       <c r="I80">
         <v>1</v>
       </c>
-      <c r="J80">
-        <v>3</v>
+      <c r="J80" t="s">
+        <v>60</v>
       </c>
       <c r="K80" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L80">
-        <v>4</v>
+        <v>345</v>
       </c>
       <c r="M80">
         <v>41031</v>
@@ -4105,14 +4111,14 @@
       <c r="I81">
         <v>1</v>
       </c>
-      <c r="J81">
-        <v>3</v>
+      <c r="J81" t="s">
+        <v>60</v>
       </c>
       <c r="K81" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L81">
-        <v>4</v>
+        <v>373</v>
       </c>
       <c r="M81">
         <v>41031</v>
@@ -4149,14 +4155,14 @@
       <c r="I82">
         <v>1</v>
       </c>
-      <c r="J82">
-        <v>3</v>
+      <c r="J82" t="s">
+        <v>59</v>
       </c>
       <c r="K82" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L82">
-        <v>4</v>
+        <v>5230</v>
       </c>
       <c r="M82">
         <v>41033</v>
@@ -4193,14 +4199,14 @@
       <c r="I83">
         <v>1</v>
       </c>
-      <c r="J83">
-        <v>3</v>
+      <c r="J83" t="s">
+        <v>59</v>
       </c>
       <c r="K83" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L83">
-        <v>4</v>
+        <v>3989</v>
       </c>
       <c r="M83">
         <v>41033</v>
@@ -4237,14 +4243,14 @@
       <c r="I84">
         <v>1</v>
       </c>
-      <c r="J84">
-        <v>3</v>
+      <c r="J84" t="s">
+        <v>60</v>
       </c>
       <c r="K84" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L84">
-        <v>4</v>
+        <v>10326</v>
       </c>
       <c r="M84">
         <v>41033</v>
@@ -4281,14 +4287,14 @@
       <c r="I85">
         <v>1</v>
       </c>
-      <c r="J85">
-        <v>3</v>
+      <c r="J85" t="s">
+        <v>60</v>
       </c>
       <c r="K85" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L85">
-        <v>4</v>
+        <v>1331</v>
       </c>
       <c r="M85">
         <v>41033</v>
@@ -4325,14 +4331,14 @@
       <c r="I86">
         <v>1</v>
       </c>
-      <c r="J86">
-        <v>3</v>
+      <c r="J86" t="s">
+        <v>60</v>
       </c>
       <c r="K86" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L86">
-        <v>4</v>
+        <v>2017</v>
       </c>
       <c r="M86">
         <v>41033</v>
@@ -4369,14 +4375,14 @@
       <c r="I87">
         <v>1</v>
       </c>
-      <c r="J87">
-        <v>3</v>
+      <c r="J87" t="s">
+        <v>59</v>
       </c>
       <c r="K87" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L87">
-        <v>4</v>
+        <v>2827</v>
       </c>
       <c r="M87">
         <v>41035</v>
@@ -4413,14 +4419,14 @@
       <c r="I88">
         <v>1</v>
       </c>
-      <c r="J88">
-        <v>3</v>
+      <c r="J88" t="s">
+        <v>59</v>
       </c>
       <c r="K88" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L88">
-        <v>4</v>
+        <v>2276</v>
       </c>
       <c r="M88">
         <v>41035</v>
@@ -4457,14 +4463,14 @@
       <c r="I89">
         <v>1</v>
       </c>
-      <c r="J89">
-        <v>3</v>
+      <c r="J89" t="s">
+        <v>60</v>
       </c>
       <c r="K89" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L89">
-        <v>4</v>
+        <v>8452</v>
       </c>
       <c r="M89">
         <v>41035</v>
@@ -4501,14 +4507,14 @@
       <c r="I90">
         <v>1</v>
       </c>
-      <c r="J90">
-        <v>3</v>
+      <c r="J90" t="s">
+        <v>60</v>
       </c>
       <c r="K90" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L90">
-        <v>4</v>
+        <v>1005</v>
       </c>
       <c r="M90">
         <v>41035</v>
@@ -4545,14 +4551,14 @@
       <c r="I91">
         <v>1</v>
       </c>
-      <c r="J91">
-        <v>3</v>
+      <c r="J91" t="s">
+        <v>60</v>
       </c>
       <c r="K91" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L91">
-        <v>4</v>
+        <v>1931</v>
       </c>
       <c r="M91">
         <v>41035</v>
@@ -4589,14 +4595,14 @@
       <c r="I92">
         <v>1</v>
       </c>
-      <c r="J92">
-        <v>3</v>
+      <c r="J92" t="s">
+        <v>59</v>
       </c>
       <c r="K92" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L92">
-        <v>4</v>
+        <v>294</v>
       </c>
       <c r="M92">
         <v>41037</v>
@@ -4633,14 +4639,14 @@
       <c r="I93">
         <v>1</v>
       </c>
-      <c r="J93">
-        <v>3</v>
+      <c r="J93" t="s">
+        <v>59</v>
       </c>
       <c r="K93" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L93">
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="M93">
         <v>41037</v>
@@ -4677,14 +4683,14 @@
       <c r="I94">
         <v>1</v>
       </c>
-      <c r="J94">
-        <v>3</v>
+      <c r="J94" t="s">
+        <v>60</v>
       </c>
       <c r="K94" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L94">
-        <v>4</v>
+        <v>1327</v>
       </c>
       <c r="M94">
         <v>41037</v>
@@ -4721,14 +4727,14 @@
       <c r="I95">
         <v>1</v>
       </c>
-      <c r="J95">
-        <v>3</v>
+      <c r="J95" t="s">
+        <v>60</v>
       </c>
       <c r="K95" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L95">
-        <v>4</v>
+        <v>174</v>
       </c>
       <c r="M95">
         <v>41037</v>
@@ -4765,14 +4771,14 @@
       <c r="I96">
         <v>1</v>
       </c>
-      <c r="J96">
-        <v>3</v>
+      <c r="J96" t="s">
+        <v>60</v>
       </c>
       <c r="K96" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L96">
-        <v>4</v>
+        <v>260</v>
       </c>
       <c r="M96">
         <v>41037</v>
@@ -4809,14 +4815,14 @@
       <c r="I97">
         <v>1</v>
       </c>
-      <c r="J97">
-        <v>3</v>
+      <c r="J97" t="s">
+        <v>59</v>
       </c>
       <c r="K97" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L97">
-        <v>4</v>
+        <v>41884</v>
       </c>
       <c r="M97">
         <v>41039</v>
@@ -4853,14 +4859,14 @@
       <c r="I98">
         <v>1</v>
       </c>
-      <c r="J98">
-        <v>3</v>
+      <c r="J98" t="s">
+        <v>59</v>
       </c>
       <c r="K98" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L98">
-        <v>4</v>
+        <v>26773</v>
       </c>
       <c r="M98">
         <v>41039</v>
@@ -4897,14 +4903,14 @@
       <c r="I99">
         <v>1</v>
       </c>
-      <c r="J99">
-        <v>3</v>
+      <c r="J99" t="s">
+        <v>60</v>
       </c>
       <c r="K99" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L99">
-        <v>4</v>
+        <v>21468</v>
       </c>
       <c r="M99">
         <v>41039</v>
@@ -4941,14 +4947,14 @@
       <c r="I100">
         <v>1</v>
       </c>
-      <c r="J100">
-        <v>3</v>
+      <c r="J100" t="s">
+        <v>60</v>
       </c>
       <c r="K100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L100">
-        <v>4</v>
+        <v>5041</v>
       </c>
       <c r="M100">
         <v>41039</v>
@@ -4985,14 +4991,14 @@
       <c r="I101">
         <v>1</v>
       </c>
-      <c r="J101">
-        <v>3</v>
+      <c r="J101" t="s">
+        <v>60</v>
       </c>
       <c r="K101" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L101">
-        <v>4</v>
+        <v>5046</v>
       </c>
       <c r="M101">
         <v>41039</v>
@@ -5029,14 +5035,14 @@
       <c r="I102">
         <v>1</v>
       </c>
-      <c r="J102">
-        <v>3</v>
+      <c r="J102" t="s">
+        <v>59</v>
       </c>
       <c r="K102" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L102">
-        <v>4</v>
+        <v>4675</v>
       </c>
       <c r="M102">
         <v>41041</v>
@@ -5073,14 +5079,14 @@
       <c r="I103">
         <v>1</v>
       </c>
-      <c r="J103">
-        <v>3</v>
+      <c r="J103" t="s">
+        <v>59</v>
       </c>
       <c r="K103" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L103">
-        <v>4</v>
+        <v>4028</v>
       </c>
       <c r="M103">
         <v>41041</v>
@@ -5117,14 +5123,14 @@
       <c r="I104">
         <v>1</v>
       </c>
-      <c r="J104">
-        <v>3</v>
+      <c r="J104" t="s">
+        <v>60</v>
       </c>
       <c r="K104" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L104">
-        <v>4</v>
+        <v>3288</v>
       </c>
       <c r="M104">
         <v>41041</v>
@@ -5161,14 +5167,14 @@
       <c r="I105">
         <v>1</v>
       </c>
-      <c r="J105">
-        <v>3</v>
+      <c r="J105" t="s">
+        <v>60</v>
       </c>
       <c r="K105" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L105">
-        <v>4</v>
+        <v>784</v>
       </c>
       <c r="M105">
         <v>41041</v>
@@ -5205,14 +5211,14 @@
       <c r="I106">
         <v>1</v>
       </c>
-      <c r="J106">
-        <v>3</v>
+      <c r="J106" t="s">
+        <v>60</v>
       </c>
       <c r="K106" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L106">
-        <v>4</v>
+        <v>653</v>
       </c>
       <c r="M106">
         <v>41041</v>
@@ -5249,14 +5255,14 @@
       <c r="I107">
         <v>1</v>
       </c>
-      <c r="J107">
-        <v>3</v>
+      <c r="J107" t="s">
+        <v>59</v>
       </c>
       <c r="K107" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L107">
-        <v>4</v>
+        <v>6866</v>
       </c>
       <c r="M107">
         <v>41043</v>
@@ -5293,14 +5299,14 @@
       <c r="I108">
         <v>1</v>
       </c>
-      <c r="J108">
-        <v>3</v>
+      <c r="J108" t="s">
+        <v>59</v>
       </c>
       <c r="K108" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L108">
-        <v>4</v>
+        <v>4944</v>
       </c>
       <c r="M108">
         <v>41043</v>
@@ -5337,14 +5343,14 @@
       <c r="I109">
         <v>1</v>
       </c>
-      <c r="J109">
-        <v>3</v>
+      <c r="J109" t="s">
+        <v>60</v>
       </c>
       <c r="K109" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L109">
-        <v>4</v>
+        <v>9086</v>
       </c>
       <c r="M109">
         <v>41043</v>
@@ -5381,14 +5387,14 @@
       <c r="I110">
         <v>1</v>
       </c>
-      <c r="J110">
-        <v>3</v>
+      <c r="J110" t="s">
+        <v>60</v>
       </c>
       <c r="K110" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L110">
-        <v>4</v>
+        <v>1738</v>
       </c>
       <c r="M110">
         <v>41043</v>
@@ -5425,14 +5431,14 @@
       <c r="I111">
         <v>1</v>
       </c>
-      <c r="J111">
-        <v>3</v>
+      <c r="J111" t="s">
+        <v>60</v>
       </c>
       <c r="K111" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L111">
-        <v>4</v>
+        <v>2737</v>
       </c>
       <c r="M111">
         <v>41043</v>
@@ -5469,14 +5475,14 @@
       <c r="I112">
         <v>1</v>
       </c>
-      <c r="J112">
-        <v>3</v>
+      <c r="J112" t="s">
+        <v>59</v>
       </c>
       <c r="K112" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L112">
-        <v>4</v>
+        <v>613</v>
       </c>
       <c r="M112">
         <v>41045</v>
@@ -5513,14 +5519,14 @@
       <c r="I113">
         <v>1</v>
       </c>
-      <c r="J113">
-        <v>3</v>
+      <c r="J113" t="s">
+        <v>59</v>
       </c>
       <c r="K113" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L113">
-        <v>4</v>
+        <v>567</v>
       </c>
       <c r="M113">
         <v>41045</v>
@@ -5557,14 +5563,14 @@
       <c r="I114">
         <v>1</v>
       </c>
-      <c r="J114">
-        <v>3</v>
+      <c r="J114" t="s">
+        <v>60</v>
       </c>
       <c r="K114" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L114">
-        <v>4</v>
+        <v>2544</v>
       </c>
       <c r="M114">
         <v>41045</v>
@@ -5601,14 +5607,14 @@
       <c r="I115">
         <v>1</v>
       </c>
-      <c r="J115">
-        <v>3</v>
+      <c r="J115" t="s">
+        <v>60</v>
       </c>
       <c r="K115" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L115">
-        <v>4</v>
+        <v>288</v>
       </c>
       <c r="M115">
         <v>41045</v>
@@ -5645,14 +5651,14 @@
       <c r="I116">
         <v>1</v>
       </c>
-      <c r="J116">
-        <v>3</v>
+      <c r="J116" t="s">
+        <v>60</v>
       </c>
       <c r="K116" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L116">
-        <v>4</v>
+        <v>575</v>
       </c>
       <c r="M116">
         <v>41045</v>
@@ -5689,14 +5695,14 @@
       <c r="I117">
         <v>1</v>
       </c>
-      <c r="J117">
-        <v>3</v>
+      <c r="J117" t="s">
+        <v>59</v>
       </c>
       <c r="K117" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L117">
-        <v>4</v>
+        <v>15678</v>
       </c>
       <c r="M117">
         <v>41047</v>
@@ -5733,14 +5739,14 @@
       <c r="I118">
         <v>1</v>
       </c>
-      <c r="J118">
-        <v>3</v>
+      <c r="J118" t="s">
+        <v>59</v>
       </c>
       <c r="K118" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L118">
-        <v>4</v>
+        <v>13921</v>
       </c>
       <c r="M118">
         <v>41047</v>
@@ -5777,14 +5783,14 @@
       <c r="I119">
         <v>1</v>
       </c>
-      <c r="J119">
-        <v>3</v>
+      <c r="J119" t="s">
+        <v>60</v>
       </c>
       <c r="K119" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L119">
-        <v>4</v>
+        <v>16573</v>
       </c>
       <c r="M119">
         <v>41047</v>
@@ -5821,14 +5827,14 @@
       <c r="I120">
         <v>1</v>
       </c>
-      <c r="J120">
-        <v>3</v>
+      <c r="J120" t="s">
+        <v>60</v>
       </c>
       <c r="K120" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L120">
-        <v>4</v>
+        <v>4335</v>
       </c>
       <c r="M120">
         <v>41047</v>
@@ -5865,14 +5871,14 @@
       <c r="I121">
         <v>1</v>
       </c>
-      <c r="J121">
-        <v>3</v>
+      <c r="J121" t="s">
+        <v>60</v>
       </c>
       <c r="K121" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L121">
-        <v>4</v>
+        <v>5717</v>
       </c>
       <c r="M121">
         <v>41047</v>
@@ -5909,14 +5915,14 @@
       <c r="I122">
         <v>1</v>
       </c>
-      <c r="J122">
-        <v>3</v>
+      <c r="J122" t="s">
+        <v>59</v>
       </c>
       <c r="K122" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L122">
-        <v>4</v>
+        <v>333</v>
       </c>
       <c r="M122">
         <v>41049</v>
@@ -5953,14 +5959,14 @@
       <c r="I123">
         <v>1</v>
       </c>
-      <c r="J123">
-        <v>3</v>
+      <c r="J123" t="s">
+        <v>59</v>
       </c>
       <c r="K123" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L123">
-        <v>4</v>
+        <v>293</v>
       </c>
       <c r="M123">
         <v>41049</v>
@@ -5997,14 +6003,14 @@
       <c r="I124">
         <v>1</v>
       </c>
-      <c r="J124">
-        <v>3</v>
+      <c r="J124" t="s">
+        <v>60</v>
       </c>
       <c r="K124" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L124">
-        <v>4</v>
+        <v>860</v>
       </c>
       <c r="M124">
         <v>41049</v>
@@ -6041,14 +6047,14 @@
       <c r="I125">
         <v>1</v>
       </c>
-      <c r="J125">
-        <v>3</v>
+      <c r="J125" t="s">
+        <v>60</v>
       </c>
       <c r="K125" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L125">
-        <v>4</v>
+        <v>158</v>
       </c>
       <c r="M125">
         <v>41049</v>
@@ -6085,14 +6091,14 @@
       <c r="I126">
         <v>1</v>
       </c>
-      <c r="J126">
-        <v>3</v>
+      <c r="J126" t="s">
+        <v>60</v>
       </c>
       <c r="K126" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L126">
-        <v>4</v>
+        <v>266</v>
       </c>
       <c r="M126">
         <v>41049</v>
@@ -6129,14 +6135,14 @@
       <c r="I127">
         <v>1</v>
       </c>
-      <c r="J127">
-        <v>3</v>
+      <c r="J127" t="s">
+        <v>59</v>
       </c>
       <c r="K127" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L127">
-        <v>4</v>
+        <v>87248</v>
       </c>
       <c r="M127">
         <v>41051</v>
@@ -6173,14 +6179,14 @@
       <c r="I128">
         <v>1</v>
       </c>
-      <c r="J128">
-        <v>3</v>
+      <c r="J128" t="s">
+        <v>59</v>
       </c>
       <c r="K128" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L128">
-        <v>4</v>
+        <v>65736</v>
       </c>
       <c r="M128">
         <v>41051</v>
@@ -6217,14 +6223,14 @@
       <c r="I129">
         <v>1</v>
       </c>
-      <c r="J129">
-        <v>3</v>
+      <c r="J129" t="s">
+        <v>60</v>
       </c>
       <c r="K129" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L129">
-        <v>4</v>
+        <v>16895</v>
       </c>
       <c r="M129">
         <v>41051</v>
@@ -6261,14 +6267,14 @@
       <c r="I130">
         <v>1</v>
       </c>
-      <c r="J130">
-        <v>3</v>
+      <c r="J130" t="s">
+        <v>60</v>
       </c>
       <c r="K130" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L130">
-        <v>4</v>
+        <v>7119</v>
       </c>
       <c r="M130">
         <v>41051</v>
@@ -6305,14 +6311,14 @@
       <c r="I131">
         <v>1</v>
       </c>
-      <c r="J131">
-        <v>3</v>
+      <c r="J131" t="s">
+        <v>60</v>
       </c>
       <c r="K131" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L131">
-        <v>4</v>
+        <v>4643</v>
       </c>
       <c r="M131">
         <v>41051</v>
@@ -6349,14 +6355,14 @@
       <c r="I132">
         <v>1</v>
       </c>
-      <c r="J132">
-        <v>3</v>
+      <c r="J132" t="s">
+        <v>59</v>
       </c>
       <c r="K132" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L132">
-        <v>4</v>
+        <v>5324</v>
       </c>
       <c r="M132">
         <v>41053</v>
@@ -6393,14 +6399,14 @@
       <c r="I133">
         <v>1</v>
       </c>
-      <c r="J133">
-        <v>3</v>
+      <c r="J133" t="s">
+        <v>59</v>
       </c>
       <c r="K133" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L133">
-        <v>4</v>
+        <v>4441</v>
       </c>
       <c r="M133">
         <v>41053</v>
@@ -6437,14 +6443,14 @@
       <c r="I134">
         <v>1</v>
       </c>
-      <c r="J134">
-        <v>3</v>
+      <c r="J134" t="s">
+        <v>60</v>
       </c>
       <c r="K134" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L134">
-        <v>4</v>
+        <v>5519</v>
       </c>
       <c r="M134">
         <v>41053</v>
@@ -6481,14 +6487,14 @@
       <c r="I135">
         <v>1</v>
       </c>
-      <c r="J135">
-        <v>3</v>
+      <c r="J135" t="s">
+        <v>60</v>
       </c>
       <c r="K135" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L135">
-        <v>4</v>
+        <v>1517</v>
       </c>
       <c r="M135">
         <v>41053</v>
@@ -6525,14 +6531,14 @@
       <c r="I136">
         <v>1</v>
       </c>
-      <c r="J136">
-        <v>3</v>
+      <c r="J136" t="s">
+        <v>60</v>
       </c>
       <c r="K136" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L136">
-        <v>4</v>
+        <v>2139</v>
       </c>
       <c r="M136">
         <v>41053</v>
@@ -6569,14 +6575,14 @@
       <c r="I137">
         <v>1</v>
       </c>
-      <c r="J137">
-        <v>3</v>
+      <c r="J137" t="s">
+        <v>59</v>
       </c>
       <c r="K137" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L137">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="M137">
         <v>41055</v>
@@ -6613,14 +6619,14 @@
       <c r="I138">
         <v>1</v>
       </c>
-      <c r="J138">
-        <v>3</v>
+      <c r="J138" t="s">
+        <v>59</v>
       </c>
       <c r="K138" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L138">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="M138">
         <v>41055</v>
@@ -6657,14 +6663,14 @@
       <c r="I139">
         <v>1</v>
       </c>
-      <c r="J139">
-        <v>3</v>
+      <c r="J139" t="s">
+        <v>60</v>
       </c>
       <c r="K139" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L139">
-        <v>4</v>
+        <v>280</v>
       </c>
       <c r="M139">
         <v>41055</v>
@@ -6701,14 +6707,14 @@
       <c r="I140">
         <v>1</v>
       </c>
-      <c r="J140">
-        <v>3</v>
+      <c r="J140" t="s">
+        <v>60</v>
       </c>
       <c r="K140" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L140">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="M140">
         <v>41055</v>
@@ -6745,14 +6751,14 @@
       <c r="I141">
         <v>1</v>
       </c>
-      <c r="J141">
-        <v>3</v>
+      <c r="J141" t="s">
+        <v>60</v>
       </c>
       <c r="K141" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L141">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="M141">
         <v>41055</v>
@@ -6789,14 +6795,14 @@
       <c r="I142">
         <v>1</v>
       </c>
-      <c r="J142">
-        <v>3</v>
+      <c r="J142" t="s">
+        <v>59</v>
       </c>
       <c r="K142" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L142">
-        <v>4</v>
+        <v>2208</v>
       </c>
       <c r="M142">
         <v>41057</v>
@@ -6833,14 +6839,14 @@
       <c r="I143">
         <v>1</v>
       </c>
-      <c r="J143">
-        <v>3</v>
+      <c r="J143" t="s">
+        <v>59</v>
       </c>
       <c r="K143" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L143">
-        <v>4</v>
+        <v>1900</v>
       </c>
       <c r="M143">
         <v>41057</v>
@@ -6877,14 +6883,14 @@
       <c r="I144">
         <v>1</v>
       </c>
-      <c r="J144">
-        <v>3</v>
+      <c r="J144" t="s">
+        <v>60</v>
       </c>
       <c r="K144" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L144">
-        <v>4</v>
+        <v>2128</v>
       </c>
       <c r="M144">
         <v>41057</v>
@@ -6921,14 +6927,14 @@
       <c r="I145">
         <v>1</v>
       </c>
-      <c r="J145">
-        <v>3</v>
+      <c r="J145" t="s">
+        <v>60</v>
       </c>
       <c r="K145" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L145">
-        <v>4</v>
+        <v>434</v>
       </c>
       <c r="M145">
         <v>41057</v>
@@ -6965,14 +6971,14 @@
       <c r="I146">
         <v>1</v>
       </c>
-      <c r="J146">
-        <v>3</v>
+      <c r="J146" t="s">
+        <v>60</v>
       </c>
       <c r="K146" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L146">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="M146">
         <v>41057</v>
@@ -7009,14 +7015,14 @@
       <c r="I147">
         <v>1</v>
       </c>
-      <c r="J147">
-        <v>3</v>
+      <c r="J147" t="s">
+        <v>59</v>
       </c>
       <c r="K147" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L147">
-        <v>4</v>
+        <v>2290</v>
       </c>
       <c r="M147">
         <v>41059</v>
@@ -7053,14 +7059,14 @@
       <c r="I148">
         <v>1</v>
       </c>
-      <c r="J148">
-        <v>3</v>
+      <c r="J148" t="s">
+        <v>59</v>
       </c>
       <c r="K148" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L148">
-        <v>4</v>
+        <v>2004</v>
       </c>
       <c r="M148">
         <v>41059</v>
@@ -7097,14 +7103,14 @@
       <c r="I149">
         <v>1</v>
       </c>
-      <c r="J149">
-        <v>3</v>
+      <c r="J149" t="s">
+        <v>60</v>
       </c>
       <c r="K149" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L149">
-        <v>4</v>
+        <v>5066</v>
       </c>
       <c r="M149">
         <v>41059</v>
@@ -7141,14 +7147,14 @@
       <c r="I150">
         <v>1</v>
       </c>
-      <c r="J150">
-        <v>3</v>
+      <c r="J150" t="s">
+        <v>60</v>
       </c>
       <c r="K150" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L150">
-        <v>4</v>
+        <v>876</v>
       </c>
       <c r="M150">
         <v>41059</v>
@@ -7185,14 +7191,14 @@
       <c r="I151">
         <v>1</v>
       </c>
-      <c r="J151">
-        <v>3</v>
+      <c r="J151" t="s">
+        <v>60</v>
       </c>
       <c r="K151" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L151">
-        <v>4</v>
+        <v>1253</v>
       </c>
       <c r="M151">
         <v>41059</v>
@@ -7229,14 +7235,14 @@
       <c r="I152">
         <v>1</v>
       </c>
-      <c r="J152">
-        <v>3</v>
+      <c r="J152" t="s">
+        <v>59</v>
       </c>
       <c r="K152" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L152">
-        <v>4</v>
+        <v>1343</v>
       </c>
       <c r="M152">
         <v>41061</v>
@@ -7273,14 +7279,14 @@
       <c r="I153">
         <v>1</v>
       </c>
-      <c r="J153">
-        <v>3</v>
+      <c r="J153" t="s">
+        <v>59</v>
       </c>
       <c r="K153" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L153">
-        <v>4</v>
+        <v>930</v>
       </c>
       <c r="M153">
         <v>41061</v>
@@ -7317,14 +7323,14 @@
       <c r="I154">
         <v>1</v>
       </c>
-      <c r="J154">
-        <v>3</v>
+      <c r="J154" t="s">
+        <v>60</v>
       </c>
       <c r="K154" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L154">
-        <v>4</v>
+        <v>2870</v>
       </c>
       <c r="M154">
         <v>41061</v>
@@ -7361,14 +7367,14 @@
       <c r="I155">
         <v>1</v>
       </c>
-      <c r="J155">
-        <v>3</v>
+      <c r="J155" t="s">
+        <v>60</v>
       </c>
       <c r="K155" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L155">
-        <v>4</v>
+        <v>486</v>
       </c>
       <c r="M155">
         <v>41061</v>
@@ -7405,14 +7411,14 @@
       <c r="I156">
         <v>1</v>
       </c>
-      <c r="J156">
-        <v>3</v>
+      <c r="J156" t="s">
+        <v>60</v>
       </c>
       <c r="K156" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L156">
-        <v>4</v>
+        <v>807</v>
       </c>
       <c r="M156">
         <v>41061</v>
@@ -7449,14 +7455,14 @@
       <c r="I157">
         <v>1</v>
       </c>
-      <c r="J157">
-        <v>3</v>
+      <c r="J157" t="s">
+        <v>59</v>
       </c>
       <c r="K157" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L157">
-        <v>4</v>
+        <v>496</v>
       </c>
       <c r="M157">
         <v>41063</v>
@@ -7493,14 +7499,14 @@
       <c r="I158">
         <v>1</v>
       </c>
-      <c r="J158">
-        <v>3</v>
+      <c r="J158" t="s">
+        <v>59</v>
       </c>
       <c r="K158" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L158">
-        <v>4</v>
+        <v>332</v>
       </c>
       <c r="M158">
         <v>41063</v>
@@ -7537,14 +7543,14 @@
       <c r="I159">
         <v>1</v>
       </c>
-      <c r="J159">
-        <v>3</v>
+      <c r="J159" t="s">
+        <v>60</v>
       </c>
       <c r="K159" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L159">
-        <v>4</v>
+        <v>1246</v>
       </c>
       <c r="M159">
         <v>41063</v>
@@ -7581,14 +7587,14 @@
       <c r="I160">
         <v>1</v>
       </c>
-      <c r="J160">
-        <v>3</v>
+      <c r="J160" t="s">
+        <v>60</v>
       </c>
       <c r="K160" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L160">
-        <v>4</v>
+        <v>154</v>
       </c>
       <c r="M160">
         <v>41063</v>
@@ -7625,14 +7631,14 @@
       <c r="I161">
         <v>1</v>
       </c>
-      <c r="J161">
-        <v>3</v>
+      <c r="J161" t="s">
+        <v>60</v>
       </c>
       <c r="K161" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L161">
-        <v>4</v>
+        <v>272</v>
       </c>
       <c r="M161">
         <v>41063</v>
@@ -7669,14 +7675,14 @@
       <c r="I162">
         <v>1</v>
       </c>
-      <c r="J162">
-        <v>3</v>
+      <c r="J162" t="s">
+        <v>59</v>
       </c>
       <c r="K162" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L162">
-        <v>4</v>
+        <v>1796</v>
       </c>
       <c r="M162">
         <v>41065</v>
@@ -7713,14 +7719,14 @@
       <c r="I163">
         <v>1</v>
       </c>
-      <c r="J163">
-        <v>3</v>
+      <c r="J163" t="s">
+        <v>59</v>
       </c>
       <c r="K163" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L163">
-        <v>4</v>
+        <v>1260</v>
       </c>
       <c r="M163">
         <v>41065</v>
@@ -7757,14 +7763,14 @@
       <c r="I164">
         <v>1</v>
       </c>
-      <c r="J164">
-        <v>3</v>
+      <c r="J164" t="s">
+        <v>60</v>
       </c>
       <c r="K164" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L164">
-        <v>4</v>
+        <v>1708</v>
       </c>
       <c r="M164">
         <v>41065</v>
@@ -7801,14 +7807,14 @@
       <c r="I165">
         <v>1</v>
       </c>
-      <c r="J165">
-        <v>3</v>
+      <c r="J165" t="s">
+        <v>60</v>
       </c>
       <c r="K165" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L165">
-        <v>4</v>
+        <v>396</v>
       </c>
       <c r="M165">
         <v>41065</v>
@@ -7845,14 +7851,14 @@
       <c r="I166">
         <v>1</v>
       </c>
-      <c r="J166">
-        <v>3</v>
+      <c r="J166" t="s">
+        <v>60</v>
       </c>
       <c r="K166" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L166">
-        <v>4</v>
+        <v>414</v>
       </c>
       <c r="M166">
         <v>41065</v>
@@ -7889,14 +7895,14 @@
       <c r="I167">
         <v>1</v>
       </c>
-      <c r="J167">
-        <v>3</v>
+      <c r="J167" t="s">
+        <v>59</v>
       </c>
       <c r="K167" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L167">
-        <v>4</v>
+        <v>41842</v>
       </c>
       <c r="M167">
         <v>41067</v>
@@ -7933,14 +7939,14 @@
       <c r="I168">
         <v>1</v>
       </c>
-      <c r="J168">
-        <v>3</v>
+      <c r="J168" t="s">
+        <v>59</v>
       </c>
       <c r="K168" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L168">
-        <v>4</v>
+        <v>36322</v>
       </c>
       <c r="M168">
         <v>41067</v>
@@ -7977,14 +7983,14 @@
       <c r="I169">
         <v>1</v>
       </c>
-      <c r="J169">
-        <v>3</v>
+      <c r="J169" t="s">
+        <v>60</v>
       </c>
       <c r="K169" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L169">
-        <v>4</v>
+        <v>24058</v>
       </c>
       <c r="M169">
         <v>41067</v>
@@ -8021,14 +8027,14 @@
       <c r="I170">
         <v>1</v>
       </c>
-      <c r="J170">
-        <v>3</v>
+      <c r="J170" t="s">
+        <v>60</v>
       </c>
       <c r="K170" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L170">
-        <v>4</v>
+        <v>9457</v>
       </c>
       <c r="M170">
         <v>41067</v>
@@ -8065,14 +8071,14 @@
       <c r="I171">
         <v>1</v>
       </c>
-      <c r="J171">
-        <v>3</v>
+      <c r="J171" t="s">
+        <v>60</v>
       </c>
       <c r="K171" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L171">
-        <v>4</v>
+        <v>7491</v>
       </c>
       <c r="M171">
         <v>41067</v>
@@ -8109,14 +8115,14 @@
       <c r="I172">
         <v>1</v>
       </c>
-      <c r="J172">
-        <v>3</v>
+      <c r="J172" t="s">
+        <v>59</v>
       </c>
       <c r="K172" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L172">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="M172">
         <v>41069</v>
@@ -8153,14 +8159,14 @@
       <c r="I173">
         <v>1</v>
       </c>
-      <c r="J173">
-        <v>3</v>
+      <c r="J173" t="s">
+        <v>59</v>
       </c>
       <c r="K173" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L173">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="M173">
         <v>41069</v>
@@ -8197,14 +8203,14 @@
       <c r="I174">
         <v>1</v>
       </c>
-      <c r="J174">
-        <v>3</v>
+      <c r="J174" t="s">
+        <v>60</v>
       </c>
       <c r="K174" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L174">
-        <v>4</v>
+        <v>205</v>
       </c>
       <c r="M174">
         <v>41069</v>
@@ -8241,14 +8247,14 @@
       <c r="I175">
         <v>1</v>
       </c>
-      <c r="J175">
-        <v>3</v>
+      <c r="J175" t="s">
+        <v>60</v>
       </c>
       <c r="K175" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L175">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="M175">
         <v>41069</v>
@@ -8285,14 +8291,14 @@
       <c r="I176">
         <v>1</v>
       </c>
-      <c r="J176">
-        <v>3</v>
+      <c r="J176" t="s">
+        <v>60</v>
       </c>
       <c r="K176" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L176">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="M176">
         <v>41069</v>
@@ -8329,14 +8335,14 @@
       <c r="I177">
         <v>1</v>
       </c>
-      <c r="J177">
-        <v>3</v>
+      <c r="J177" t="s">
+        <v>59</v>
       </c>
       <c r="K177" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L177">
-        <v>4</v>
+        <v>6447</v>
       </c>
       <c r="M177">
         <v>41071</v>
@@ -8373,14 +8379,14 @@
       <c r="I178">
         <v>1</v>
       </c>
-      <c r="J178">
-        <v>3</v>
+      <c r="J178" t="s">
+        <v>59</v>
       </c>
       <c r="K178" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L178">
-        <v>4</v>
+        <v>5322</v>
       </c>
       <c r="M178">
         <v>41071</v>
@@ -8417,14 +8423,14 @@
       <c r="I179">
         <v>1</v>
       </c>
-      <c r="J179">
-        <v>3</v>
+      <c r="J179" t="s">
+        <v>60</v>
       </c>
       <c r="K179" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L179">
-        <v>4</v>
+        <v>6844</v>
       </c>
       <c r="M179">
         <v>41071</v>
@@ -8461,14 +8467,14 @@
       <c r="I180">
         <v>1</v>
       </c>
-      <c r="J180">
-        <v>3</v>
+      <c r="J180" t="s">
+        <v>60</v>
       </c>
       <c r="K180" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L180">
-        <v>4</v>
+        <v>1880</v>
       </c>
       <c r="M180">
         <v>41071</v>
@@ -8505,14 +8511,14 @@
       <c r="I181">
         <v>1</v>
       </c>
-      <c r="J181">
-        <v>3</v>
+      <c r="J181" t="s">
+        <v>60</v>
       </c>
       <c r="K181" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L181">
-        <v>4</v>
+        <v>2506</v>
       </c>
       <c r="M181">
         <v>41071</v>
